--- a/OOPproj2002/src/pkg_camp/camps.xlsx
+++ b/OOPproj2002/src/pkg_camp/camps.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="23">
   <si>
     <t>Camp Name</t>
   </si>

--- a/OOPproj2002/src/pkg_camp/camps.xlsx
+++ b/OOPproj2002/src/pkg_camp/camps.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Camps" r:id="rId3" sheetId="1"/>
+    <sheet r:id="rId1" sheetId="1" name="Camps"/>
   </sheets>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Camp Name</t>
   </si>
@@ -59,42 +61,66 @@
     <t>02-02-02</t>
   </si>
   <si>
+    <t>SCSE</t>
+  </si>
+  <si>
+    <t>nus</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>HUKUMAR</t>
+  </si>
+  <si>
+    <t>camp2</t>
+  </si>
+  <si>
     <t>scse</t>
   </si>
   <si>
     <t>ntu</t>
   </si>
   <si>
-    <t>testing</t>
-  </si>
-  <si>
-    <t>HUKUMAR</t>
-  </si>
-  <si>
-    <t>camp2</t>
-  </si>
-  <si>
     <t>testing2</t>
   </si>
   <si>
-    <t>camp2.1</t>
-  </si>
-  <si>
-    <t>nus</t>
+    <t>YCHERN</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>YCHERN CT113</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
-      <color indexed="8"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -102,10 +128,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -117,123 +150,456 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="6">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr lastClr="000000" val="windowText"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F818D"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="1" ang="16200000"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="1" ang="16200000"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="13.576428571428572"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="4" width="13.576428571428572"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="4" width="13.576428571428572"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="4" width="13.576428571428572"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="4" width="13.576428571428572"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="5" width="13.576428571428572"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="5" width="13.576428571428572"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="4" width="13.576428571428572"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="4" width="13.576428571428572"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="4" width="13.576428571428572"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="4" width="13.576428571428572"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="4" width="13.576428571428572"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="0">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="0">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="0">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="0">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s" s="4">
+        <v>16</v>
+      </c>
+      <c r="F2" t="n" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="G2" t="n" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="H2" t="s" s="4">
+        <v>17</v>
+      </c>
+      <c r="I2" t="b" s="4">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="4">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s" s="4">
+        <v>26</v>
+      </c>
+      <c r="L2" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s" s="4">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s" s="4">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="F2" t="n" s="0">
+      <c r="F3" t="n" s="5">
         <v>100.0</v>
       </c>
-      <c r="G2" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="H2" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="I2" t="b" s="0">
+      <c r="G3" t="n" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="H3" t="s" s="4">
+        <v>23</v>
+      </c>
+      <c r="I3" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="J2" t="s" s="0">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
+      <c r="J3" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="F3" t="n" s="0">
-        <v>100.0</v>
-      </c>
-      <c r="G3" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="H3" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="I3" t="b" s="0">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s" s="0">
-        <v>18</v>
-      </c>
+      <c r="K3" t="s" s="4">
+        <v>25</v>
+      </c>
+      <c r="L3" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/OOPproj2002/src/pkg_camp/camps.xlsx
+++ b/OOPproj2002/src/pkg_camp/camps.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="30">
   <si>
     <t>Camp Name</t>
   </si>
@@ -95,6 +95,15 @@
   </si>
   <si>
     <t>YCHERN CT113</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>12-12-12</t>
+  </si>
+  <si>
+    <t>del</t>
   </si>
 </sst>
 </file>
@@ -469,7 +478,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -559,7 +568,7 @@
         <v>19</v>
       </c>
       <c r="K2" t="s" s="4">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L2" s="1"/>
     </row>
@@ -599,6 +608,41 @@
       </c>
       <c r="L3" s="1"/>
     </row>
+    <row r="4">
+      <c r="A4" t="s" s="4">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s" s="4">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s" s="4">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s" s="4">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s" s="4">
+        <v>22</v>
+      </c>
+      <c r="F4" t="n" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="G4" t="n" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="H4" t="s" s="4">
+        <v>29</v>
+      </c>
+      <c r="I4" t="b" s="4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="4">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s" s="4">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/OOPproj2002/src/pkg_camp/camps.xlsx
+++ b/OOPproj2002/src/pkg_camp/camps.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9246ca4158f50db6/Documents/GitHub/CampManagement-Java/OOPproj2002/src/pkg_camp/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{4DFF4D85-A0D8-4D2E-9AC3-B9C4BC3CC99E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Camps"/>
+    <sheet name="Camps" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="28">
   <si>
     <t>Camp Name</t>
   </si>
@@ -70,9 +77,6 @@
     <t>testing</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
     <t>HUKUMAR</t>
   </si>
   <si>
@@ -92,9 +96,6 @@
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>YCHERN CT113</t>
   </si>
   <si>
     <t>delete</t>
@@ -109,9 +110,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,12 +123,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -159,32 +154,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -195,10 +184,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -236,71 +225,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -328,7 +317,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -351,11 +340,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -364,13 +353,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -380,7 +369,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -389,7 +378,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -398,7 +387,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -406,10 +395,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -474,173 +463,162 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="13.576428571428572"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="4" width="13.576428571428572"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="4" width="13.576428571428572"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="4" width="13.576428571428572"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="4" width="13.576428571428572"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="5" width="13.576428571428572"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="5" width="13.576428571428572"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="4" width="13.576428571428572"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="4" width="13.576428571428572"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="4" width="13.576428571428572"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="4" width="13.576428571428572"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="4" width="13.576428571428572"/>
+    <col min="1" max="5" bestFit="true" customWidth="true" width="13.5546875"/>
+    <col min="6" max="7" bestFit="true" customWidth="true" style="2" width="13.5546875"/>
+    <col min="8" max="12" bestFit="true" customWidth="true" width="13.5546875"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s" s="0">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B2" t="s" s="4">
+      <c r="B2" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C2" t="s" s="4">
+      <c r="C2" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="D2" t="s" s="4">
+      <c r="D2" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="E2" t="s" s="4">
+      <c r="E2" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="F2" t="n" s="5">
+      <c r="F2" t="n" s="2">
         <v>100.0</v>
       </c>
-      <c r="G2" t="n" s="5">
+      <c r="G2" t="n" s="2">
         <v>5.0</v>
       </c>
-      <c r="H2" t="s" s="4">
+      <c r="H2" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="I2" t="b" s="4">
+      <c r="I2" t="b" s="0">
         <v>1</v>
       </c>
-      <c r="J2" t="s" s="4">
+      <c r="J2" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="K2" t="s" s="4">
+      <c r="B3" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F3" t="n" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="G3" t="n" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="I3" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="L2" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B3" t="s" s="4">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s" s="4">
+      <c r="E4" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="E3" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="F3" t="n" s="5">
-        <v>100.0</v>
-      </c>
-      <c r="G3" t="n" s="5">
-        <v>10.0</v>
-      </c>
-      <c r="H3" t="s" s="4">
-        <v>23</v>
-      </c>
-      <c r="I3" t="b" s="4">
+      <c r="F4" s="2">
+        <v>100</v>
+      </c>
+      <c r="G4" s="2">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="I4" t="b" s="0">
         <v>1</v>
       </c>
-      <c r="J3" t="s" s="4">
-        <v>19</v>
-      </c>
-      <c r="K3" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="4">
-        <v>27</v>
-      </c>
-      <c r="B4" t="s" s="4">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s" s="4">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s" s="4">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="F4" t="n" s="5">
-        <v>100.0</v>
-      </c>
-      <c r="G4" t="n" s="5">
-        <v>10.0</v>
-      </c>
-      <c r="H4" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="I4" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="4">
-        <v>19</v>
-      </c>
-      <c r="K4" t="s" s="4">
-        <v>25</v>
+      <c r="J4" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/OOPproj2002/src/pkg_camp/camps.xlsx
+++ b/OOPproj2002/src/pkg_camp/camps.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
   <si>
     <t>Camp Name</t>
   </si>
@@ -586,41 +586,6 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2">
-        <v>100</v>
-      </c>
-      <c r="G4" s="2">
-        <v>10</v>
-      </c>
-      <c r="H4" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="I4" t="b" s="0">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K4" t="s" s="0">
-        <v>24</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/OOPproj2002/src/pkg_camp/camps.xlsx
+++ b/OOPproj2002/src/pkg_camp/camps.xlsx
@@ -1,27 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9246ca4158f50db6/Documents/GitHub/CampManagement-Java/OOPproj2002/src/pkg_camp/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{4DFF4D85-A0D8-4D2E-9AC3-B9C4BC3CC99E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Camps" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Camps"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="27">
   <si>
     <t>Camp Name</t>
   </si>
@@ -59,7 +52,7 @@
     <t>Committee Members</t>
   </si>
   <si>
-    <t>camp1</t>
+    <t>zaffu</t>
   </si>
   <si>
     <t>01-01-01</t>
@@ -77,9 +70,15 @@
     <t>testing</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>HUKUMAR</t>
   </si>
   <si>
+    <t>YCHERN CT113 CT113</t>
+  </si>
+  <si>
     <t>camp2</t>
   </si>
   <si>
@@ -92,33 +91,30 @@
     <t>testing2</t>
   </si>
   <si>
-    <t>YCHERN</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>delete</t>
-  </si>
-  <si>
-    <t>12-12-12</t>
-  </si>
-  <si>
-    <t>del</t>
+    <t>CT113</t>
+  </si>
+  <si>
+    <t>CT113 CT113</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -154,26 +150,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="6">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -184,10 +186,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -225,71 +227,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -317,7 +319,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -340,11 +342,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -353,13 +355,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -369,7 +371,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -378,7 +380,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -387,7 +389,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -395,10 +397,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -463,128 +465,139 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" bestFit="true" customWidth="true" width="13.5546875"/>
-    <col min="6" max="7" bestFit="true" customWidth="true" style="2" width="13.5546875"/>
-    <col min="8" max="12" bestFit="true" customWidth="true" width="13.5546875"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="13.576428571428572"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="4" width="13.576428571428572"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="4" width="13.576428571428572"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="4" width="13.576428571428572"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="4" width="13.576428571428572"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="5" width="13.576428571428572"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="5" width="13.576428571428572"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="4" width="13.576428571428572"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="4" width="13.576428571428572"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="4" width="13.576428571428572"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="4" width="13.576428571428572"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="4" width="13.576428571428572"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s" s="0">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="0">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="0">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="0">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="0">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="0">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s" s="4">
         <v>16</v>
       </c>
-      <c r="F2" t="n" s="2">
+      <c r="F2" t="n" s="5">
         <v>100.0</v>
       </c>
-      <c r="G2" t="n" s="2">
+      <c r="G2" t="n" s="5">
         <v>5.0</v>
       </c>
-      <c r="H2" t="s" s="0">
+      <c r="H2" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="I2" t="b" s="0">
+      <c r="I2" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="J2" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s" s="0">
+      <c r="J2" t="s" s="4">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s" s="4">
+        <v>26</v>
+      </c>
+      <c r="L2" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s" s="4">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s" s="4">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s" s="4">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s" s="0">
+      <c r="F3" t="n" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="G3" t="n" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="H3" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="I3" t="b" s="4">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="F3" t="n" s="2">
-        <v>100.0</v>
-      </c>
-      <c r="G3" t="n" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="H3" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="I3" t="b" s="0">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K3" t="s" s="0">
-        <v>24</v>
-      </c>
+      <c r="K3" t="s" s="4">
+        <v>25</v>
+      </c>
+      <c r="L3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/OOPproj2002/src/pkg_camp/camps.xlsx
+++ b/OOPproj2002/src/pkg_camp/camps.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="25">
   <si>
     <t>Camp Name</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>YCHERN CT113</t>
+  </si>
+  <si>
+    <t>CT113</t>
   </si>
 </sst>
 </file>
@@ -204,7 +207,10 @@
         <v>18</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="L2" t="s" s="0">
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -239,6 +245,9 @@
         <v>18</v>
       </c>
       <c r="K3" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s" s="0">
         <v>19</v>
       </c>
     </row>

--- a/OOPproj2002/src/pkg_camp/camps.xlsx
+++ b/OOPproj2002/src/pkg_camp/camps.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="25">
   <si>
     <t>Camp Name</t>
   </si>

--- a/OOPproj2002/src/pkg_camp/camps.xlsx
+++ b/OOPproj2002/src/pkg_camp/camps.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Camps" r:id="rId3" sheetId="1"/>
+    <sheet r:id="rId1" sheetId="1" name="Camps"/>
   </sheets>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="27">
   <si>
     <t>Camp Name</t>
   </si>
@@ -68,39 +70,51 @@
     <t>TESTING</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>HUKUMAR</t>
   </si>
   <si>
+    <t>YCHERN</t>
+  </si>
+  <si>
+    <t>CT113</t>
+  </si>
+  <si>
+    <t>camp2</t>
+  </si>
+  <si>
+    <t>SBS</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>testsuggestion</t>
+  </si>
+  <si>
     <t/>
-  </si>
-  <si>
-    <t>camp2</t>
-  </si>
-  <si>
-    <t>SBS</t>
-  </si>
-  <si>
-    <t>YCHERN</t>
-  </si>
-  <si>
-    <t>YCHERN CT113</t>
-  </si>
-  <si>
-    <t>CT113</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
-      <color indexed="8"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -108,10 +122,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -123,135 +144,498 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="6">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr lastClr="000000" val="windowText"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F818D"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="1" ang="16200000"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="1" ang="16200000"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="13.576428571428572"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="4" width="13.576428571428572"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="4" width="13.576428571428572"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="4" width="13.576428571428572"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="4" width="13.576428571428572"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="5" width="13.576428571428572"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="5" width="13.576428571428572"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="4" width="13.576428571428572"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="4" width="13.576428571428572"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="4" width="13.576428571428572"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="4" width="13.576428571428572"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="4" width="13.576428571428572"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="0">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="0">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="0">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="0">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s" s="4">
         <v>16</v>
       </c>
-      <c r="F2" t="n" s="0">
+      <c r="F2" t="n" s="5">
         <v>50.0</v>
       </c>
-      <c r="G2" t="n" s="0">
+      <c r="G2" t="n" s="5">
         <v>5.0</v>
       </c>
-      <c r="H2" t="s" s="0">
+      <c r="H2" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="I2" t="b" s="0">
+      <c r="I2" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="J2" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s" s="0">
+      <c r="J2" t="s" s="4">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s" s="4">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L2" t="s" s="0">
-        <v>24</v>
+      <c r="B3" t="s" s="4">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s" s="4">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s" s="4">
+        <v>16</v>
+      </c>
+      <c r="F3" t="n" s="5">
+        <v>60.0</v>
+      </c>
+      <c r="G3" t="n" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="H3" t="s" s="4">
+        <v>17</v>
+      </c>
+      <c r="I3" t="b" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s" s="4">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s" s="4">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s" s="4">
+        <v>26</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s" s="4">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s" s="4">
+        <v>16</v>
+      </c>
+      <c r="F4" t="n" s="5">
+        <v>50.0</v>
+      </c>
+      <c r="G4" t="n" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="H4" t="s" s="4">
+        <v>25</v>
+      </c>
+      <c r="I4" t="b" s="4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="4">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s" s="4">
+        <v>26</v>
+      </c>
+      <c r="L4" t="s" s="4">
         <v>20</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="F3" t="n" s="0">
-        <v>60.0</v>
-      </c>
-      <c r="G3" t="n" s="0">
-        <v>6.0</v>
-      </c>
-      <c r="H3" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="I3" t="b" s="0">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K3" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="L3" t="s" s="0">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/OOPproj2002/src/pkg_camp/camps.xlsx
+++ b/OOPproj2002/src/pkg_camp/camps.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="27">
   <si>
     <t>Camp Name</t>
   </si>

--- a/OOPproj2002/src/pkg_camp/camps.xlsx
+++ b/OOPproj2002/src/pkg_camp/camps.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="29">
   <si>
     <t>Camp Name</t>
   </si>
@@ -95,6 +95,12 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>tester2</t>
+  </si>
+  <si>
+    <t>ntu</t>
   </si>
 </sst>
 </file>
@@ -463,7 +469,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -558,6 +564,9 @@
       <c r="L2" t="s" s="4">
         <v>21</v>
       </c>
+      <c r="M2" t="s" s="0">
+        <v>26</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
@@ -596,6 +605,9 @@
       <c r="L3" t="s" s="4">
         <v>26</v>
       </c>
+      <c r="M3" t="s" s="0">
+        <v>26</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
@@ -633,6 +645,50 @@
       </c>
       <c r="L4" t="s" s="4">
         <v>20</v>
+      </c>
+      <c r="M4" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="4">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s" s="4">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s" s="4">
+        <v>28</v>
+      </c>
+      <c r="F5" t="n" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="G5" t="n" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="H5" t="s" s="4">
+        <v>27</v>
+      </c>
+      <c r="I5" t="b" s="4">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s" s="4">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s" s="4">
+        <v>26</v>
+      </c>
+      <c r="L5" t="s" s="4">
+        <v>26</v>
+      </c>
+      <c r="M5" t="s" s="0">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/OOPproj2002/src/pkg_camp/camps.xlsx
+++ b/OOPproj2002/src/pkg_camp/camps.xlsx
@@ -119,7 +119,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -166,47 +166,6 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="F2" t="n" s="0">
-        <v>100.0</v>
-      </c>
-      <c r="G2" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="H2" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="I2" t="b" s="0">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="K2" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="M2" t="s" s="0">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/OOPproj2002/src/pkg_camp/camps.xlsx
+++ b/OOPproj2002/src/pkg_camp/camps.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="28">
   <si>
     <t>Camp Name</t>
   </si>
@@ -75,6 +75,27 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>ori</t>
+  </si>
+  <si>
+    <t>01-01-01</t>
+  </si>
+  <si>
+    <t>02-02-02</t>
+  </si>
+  <si>
+    <t>scse</t>
+  </si>
+  <si>
+    <t>ntu</t>
+  </si>
+  <si>
+    <t>scse ori</t>
+  </si>
+  <si>
+    <t>YCHERN</t>
   </si>
 </sst>
 </file>
@@ -119,7 +140,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -166,6 +187,47 @@
         <v>12</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I2" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="L2" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/OOPproj2002/src/pkg_camp/camps.xlsx
+++ b/OOPproj2002/src/pkg_camp/camps.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="24">
   <si>
     <t>Camp Name</t>
   </si>
@@ -53,13 +53,13 @@
     <t>Withdrawn Students</t>
   </si>
   <si>
-    <t>newcamp</t>
-  </si>
-  <si>
-    <t>01-04-24</t>
-  </si>
-  <si>
-    <t>12-12-23</t>
+    <t>camp1</t>
+  </si>
+  <si>
+    <t>01-01-01</t>
+  </si>
+  <si>
+    <t>02-02-02</t>
   </si>
   <si>
     <t>SCSE</t>
@@ -68,7 +68,7 @@
     <t>NTU</t>
   </si>
   <si>
-    <t>scseori</t>
+    <t>test SCSE visible + limited slot</t>
   </si>
   <si>
     <t>HUKUMAR</t>
@@ -77,22 +77,10 @@
     <t/>
   </si>
   <si>
-    <t>ori</t>
-  </si>
-  <si>
-    <t>01-01-01</t>
-  </si>
-  <si>
-    <t>02-02-02</t>
-  </si>
-  <si>
-    <t>scse</t>
-  </si>
-  <si>
-    <t>ntu</t>
-  </si>
-  <si>
-    <t>scse ori</t>
+    <t>camp2</t>
+  </si>
+  <si>
+    <t>test visibility</t>
   </si>
   <si>
     <t>YCHERN</t>
@@ -140,7 +128,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -189,28 +177,28 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>25.0</v>
+        <v>2.0</v>
       </c>
       <c r="G2" t="n" s="0">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I2" t="b" s="0">
         <v>1</v>
@@ -219,12 +207,53 @@
         <v>19</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s" s="0">
         <v>20</v>
       </c>
       <c r="M2" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>50.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="I3" t="b" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="M3" t="s" s="0">
         <v>20</v>
       </c>
     </row>
